--- a/untranslated/downloads/data-excel/16.1.4.xlsx
+++ b/untranslated/downloads/data-excel/16.1.4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\ПоказателиЦУР для Платформы\Глобальные показатели ЦУР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\Показатели ЦУР для Платформы\Глобальные показатели ЦУР\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -47,27 +47,18 @@
     <t>Местность</t>
   </si>
   <si>
-    <t>Образование</t>
-  </si>
-  <si>
     <t>Основное общее</t>
   </si>
   <si>
     <t>Среднее общее</t>
   </si>
   <si>
-    <t>Пол</t>
-  </si>
-  <si>
     <t>Мужской</t>
   </si>
   <si>
     <t>Женский</t>
   </si>
   <si>
-    <t>Возраст</t>
-  </si>
-  <si>
     <t>Молодёжь, 15-28 лет</t>
   </si>
   <si>
@@ -137,12 +128,6 @@
     <t>rural</t>
   </si>
   <si>
-    <t>Жынысы</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
     <t>Эркектер</t>
   </si>
   <si>
@@ -155,12 +140,6 @@
     <t> Women</t>
   </si>
   <si>
-    <t>Аймактар</t>
-  </si>
-  <si>
-    <t>Территория</t>
-  </si>
-  <si>
     <t>Territory</t>
   </si>
   <si>
@@ -245,12 +224,6 @@
     <t>Osh city</t>
   </si>
   <si>
-    <t>Жаш курагы</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
     <t>15-28 жаштагы жаштар</t>
   </si>
   <si>
@@ -266,9 +239,6 @@
     <t>Over working age</t>
   </si>
   <si>
-    <t>Билими</t>
-  </si>
-  <si>
     <t>Education</t>
   </si>
   <si>
@@ -357,6 +327,36 @@
   </si>
   <si>
     <t>Эмгекке жарактуу жаштан жогорку калктын саны</t>
+  </si>
+  <si>
+    <t>По полу</t>
+  </si>
+  <si>
+    <t>Жынысы боюнча</t>
+  </si>
+  <si>
+    <t>Аймактар боюнча</t>
+  </si>
+  <si>
+    <t>Жаш курагы боюнча</t>
+  </si>
+  <si>
+    <t>Билими боюнча</t>
+  </si>
+  <si>
+    <t>По территории</t>
+  </si>
+  <si>
+    <t>По возрасту</t>
+  </si>
+  <si>
+    <t>По образованию</t>
+  </si>
+  <si>
+    <t>By sex</t>
+  </si>
+  <si>
+    <t>By age</t>
   </si>
 </sst>
 </file>
@@ -550,7 +550,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -661,7 +661,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -683,6 +682,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -967,7 +973,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -977,13 +985,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D1" s="27"/>
       <c r="E1" s="27"/>
@@ -1024,17 +1032,19 @@
       <c r="E4" s="28">
         <v>2019</v>
       </c>
-      <c r="F4" s="40"/>
+      <c r="F4" s="47">
+        <v>2020</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>109</v>
+      <c r="A5" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>99</v>
       </c>
       <c r="D5" s="29">
         <v>57.9</v>
@@ -1042,31 +1052,33 @@
       <c r="E5" s="30">
         <v>64.352074750206782</v>
       </c>
-      <c r="F5" s="40"/>
+      <c r="F5" s="48">
+        <v>66.8</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="43" t="s">
+      <c r="A6" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="42" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="32"/>
-      <c r="F6" s="40"/>
+      <c r="F6" s="21"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="44" t="s">
-        <v>31</v>
+      <c r="A7" s="43" t="s">
+        <v>28</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D7" s="27">
         <v>50.7</v>
@@ -1074,17 +1086,19 @@
       <c r="E7" s="33">
         <v>59.596563853884483</v>
       </c>
-      <c r="F7" s="40"/>
+      <c r="F7" s="7">
+        <v>61.4</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="44" t="s">
-        <v>34</v>
+      <c r="A8" s="43" t="s">
+        <v>31</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D8" s="27">
         <v>62.8</v>
@@ -1092,31 +1106,33 @@
       <c r="E8" s="33">
         <v>67.50666345288073</v>
       </c>
-      <c r="F8" s="40"/>
+      <c r="F8" s="7">
+        <v>70.3</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>38</v>
+      <c r="A9" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>109</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
-      <c r="F9" s="40"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D10" s="27">
         <v>67.400000000000006</v>
@@ -1124,17 +1140,19 @@
       <c r="E10" s="33">
         <v>72.727756496176085</v>
       </c>
-      <c r="F10" s="40"/>
+      <c r="F10" s="7">
+        <v>76.099999999999994</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D11" s="27">
         <v>44.7</v>
@@ -1142,31 +1160,33 @@
       <c r="E11" s="33">
         <v>52.478850918538797</v>
       </c>
-      <c r="F11" s="40"/>
+      <c r="F11" s="7">
+        <v>54</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>44</v>
+        <v>103</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>106</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="33"/>
-      <c r="F12" s="40"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D13" s="27">
         <v>63.7</v>
@@ -1174,17 +1194,19 @@
       <c r="E13" s="33">
         <v>71.635820332518307</v>
       </c>
-      <c r="F13" s="40"/>
+      <c r="F13" s="7">
+        <v>65.3</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D14" s="27">
         <v>46.2</v>
@@ -1192,17 +1214,19 @@
       <c r="E14" s="33">
         <v>54.214345584762668</v>
       </c>
-      <c r="F14" s="40"/>
+      <c r="F14" s="7">
+        <v>48.1</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D15" s="27">
         <v>69.3</v>
@@ -1210,17 +1234,19 @@
       <c r="E15" s="33">
         <v>72.713230224266951</v>
       </c>
-      <c r="F15" s="40"/>
+      <c r="F15" s="7">
+        <v>70.7</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D16" s="27">
         <v>71.900000000000006</v>
@@ -1228,17 +1254,19 @@
       <c r="E16" s="33">
         <v>78.330796533938226</v>
       </c>
-      <c r="F16" s="40"/>
+      <c r="F16" s="7">
+        <v>78.3</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D17" s="27">
         <v>70.400000000000006</v>
@@ -1246,17 +1274,19 @@
       <c r="E17" s="33">
         <v>73.833053546528632</v>
       </c>
-      <c r="F17" s="40"/>
+      <c r="F17" s="7">
+        <v>88.8</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D18" s="27">
         <v>73.3</v>
@@ -1264,17 +1294,19 @@
       <c r="E18" s="33">
         <v>88.247574778084527</v>
       </c>
-      <c r="F18" s="40"/>
+      <c r="F18" s="7">
+        <v>92.9</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="45" t="s">
-        <v>64</v>
+      <c r="A19" s="44" t="s">
+        <v>57</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="45" t="s">
-        <v>66</v>
+        <v>58</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>59</v>
       </c>
       <c r="D19" s="27">
         <v>69.3</v>
@@ -1282,17 +1314,19 @@
       <c r="E19" s="33">
         <v>65.741181792069213</v>
       </c>
-      <c r="F19" s="40"/>
+      <c r="F19" s="7">
+        <v>71.400000000000006</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D20" s="27">
         <v>31.2</v>
@@ -1300,17 +1334,19 @@
       <c r="E20" s="33">
         <v>45.046975777166985</v>
       </c>
-      <c r="F20" s="40"/>
+      <c r="F20" s="7">
+        <v>47.4</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D21" s="27">
         <v>86.7</v>
@@ -1318,31 +1354,33 @@
       <c r="E21" s="33">
         <v>98.677795780970257</v>
       </c>
-      <c r="F21" s="40"/>
+      <c r="F21" s="7">
+        <v>99.4</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="43" t="s">
-        <v>13</v>
+        <v>104</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>107</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="33"/>
-      <c r="F22" s="40"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D23" s="27">
         <v>56.6</v>
@@ -1350,17 +1388,19 @@
       <c r="E23" s="33">
         <v>61.760682266587438</v>
       </c>
-      <c r="F23" s="40"/>
+      <c r="F23" s="7">
+        <v>64.099999999999994</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D24" s="27">
         <v>59.4</v>
@@ -1368,17 +1408,19 @@
       <c r="E24" s="33">
         <v>66.203849412271907</v>
       </c>
-      <c r="F24" s="40"/>
+      <c r="F24" s="7">
+        <v>68.7</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D25" s="27">
         <v>54.1</v>
@@ -1386,31 +1428,33 @@
       <c r="E25" s="33">
         <v>61.942673476718404</v>
       </c>
-      <c r="F25" s="40"/>
+      <c r="F25" s="7">
+        <v>64.5</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" s="43" t="s">
-        <v>7</v>
+        <v>105</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>108</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D26" s="27"/>
       <c r="E26" s="33"/>
-      <c r="F26" s="40"/>
+      <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D27" s="27">
         <v>58.8</v>
@@ -1418,17 +1462,19 @@
       <c r="E27" s="33">
         <v>63.721131546021255</v>
       </c>
-      <c r="F27" s="40"/>
+      <c r="F27" s="7">
+        <v>69.8</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D28" s="27">
         <v>63.3</v>
@@ -1436,17 +1482,19 @@
       <c r="E28" s="33">
         <v>65.183411146838637</v>
       </c>
-      <c r="F28" s="40"/>
+      <c r="F28" s="7">
+        <v>67.5</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="45" t="s">
-        <v>86</v>
+      <c r="A29" s="44" t="s">
+        <v>76</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D29" s="27">
         <v>57.7</v>
@@ -1454,17 +1502,19 @@
       <c r="E29" s="33">
         <v>62.824591035552245</v>
       </c>
-      <c r="F29" s="40"/>
+      <c r="F29" s="7">
+        <v>64.099999999999994</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="44" t="s">
-        <v>88</v>
+      <c r="A30" s="43" t="s">
+        <v>78</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D30" s="27">
         <v>59.7</v>
@@ -1472,17 +1522,19 @@
       <c r="E30" s="33">
         <v>68.133869973798539</v>
       </c>
-      <c r="F30" s="40"/>
+      <c r="F30" s="7">
+        <v>70.8</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="46" t="s">
-        <v>91</v>
+      <c r="A31" s="45" t="s">
+        <v>81</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D31" s="31">
         <v>53.7</v>
@@ -1490,32 +1542,34 @@
       <c r="E31" s="32">
         <v>64.482244330622379</v>
       </c>
-      <c r="F31" s="40"/>
+      <c r="F31" s="21">
+        <v>69.3</v>
+      </c>
     </row>
     <row r="32" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="42" t="s">
-        <v>93</v>
+      <c r="A32" s="41" t="s">
+        <v>83</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D32" s="23"/>
       <c r="E32" s="25"/>
-      <c r="F32" s="40"/>
+      <c r="F32" s="49"/>
       <c r="G32" s="24"/>
     </row>
     <row r="33" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="44" t="s">
-        <v>95</v>
+      <c r="A33" s="43" t="s">
+        <v>85</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D33" s="32">
         <v>52.386926558030133</v>
@@ -1523,18 +1577,20 @@
       <c r="E33" s="32">
         <v>55.414275459795434</v>
       </c>
-      <c r="F33" s="40"/>
+      <c r="F33" s="50">
+        <v>58.158919546647368</v>
+      </c>
       <c r="G33" s="24"/>
     </row>
     <row r="34" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="44" t="s">
-        <v>97</v>
+      <c r="A34" s="43" t="s">
+        <v>87</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D34" s="32">
         <v>58.140586059729159</v>
@@ -1542,18 +1598,20 @@
       <c r="E34" s="32">
         <v>63.171548733863425</v>
       </c>
-      <c r="F34" s="40"/>
+      <c r="F34" s="50">
+        <v>69.681218418800043</v>
+      </c>
       <c r="G34" s="24"/>
     </row>
     <row r="35" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="44" t="s">
-        <v>99</v>
+      <c r="A35" s="43" t="s">
+        <v>89</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D35" s="32">
         <v>57.9112488156225</v>
@@ -1561,18 +1619,20 @@
       <c r="E35" s="32">
         <v>65.79577664926326</v>
       </c>
-      <c r="F35" s="40"/>
+      <c r="F35" s="50">
+        <v>71.468901335932458</v>
+      </c>
       <c r="G35" s="24"/>
     </row>
     <row r="36" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="44" t="s">
-        <v>101</v>
+      <c r="A36" s="43" t="s">
+        <v>91</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D36" s="32">
         <v>60.870536057080656</v>
@@ -1580,18 +1640,20 @@
       <c r="E36" s="32">
         <v>69.928679261605225</v>
       </c>
-      <c r="F36" s="40"/>
+      <c r="F36" s="50">
+        <v>68.292103783006723</v>
+      </c>
       <c r="G36" s="24"/>
     </row>
     <row r="37" spans="1:7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="47" t="s">
-        <v>103</v>
+      <c r="A37" s="46" t="s">
+        <v>93</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D37" s="35">
         <v>59.23220530630207</v>
@@ -1599,18 +1661,20 @@
       <c r="E37" s="35">
         <v>65.727945688230506</v>
       </c>
-      <c r="F37" s="40"/>
+      <c r="F37" s="51">
+        <v>67.804192262707872</v>
+      </c>
       <c r="G37" s="24"/>
     </row>
     <row r="38" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D38" s="27"/>
       <c r="E38" s="27"/>

--- a/untranslated/downloads/data-excel/16.1.4.xlsx
+++ b/untranslated/downloads/data-excel/16.1.4.xlsx
@@ -366,7 +366,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,13 +452,6 @@
     <font>
       <i/>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -613,9 +606,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -649,13 +639,13 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -673,7 +663,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -689,6 +679,7 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -974,29 +965,29 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="41.42578125" style="8" customWidth="1"/>
+    <col min="1" max="3" width="36.85546875" style="8" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1006,72 +997,79 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-    </row>
-    <row r="3" spans="1:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="27">
         <v>2018</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="27">
         <v>2019</v>
       </c>
-      <c r="F4" s="47">
+      <c r="F4" s="46">
         <v>2020</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="40" t="s">
+      <c r="G4" s="46">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="28">
         <v>57.9</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="29">
         <v>64.352074750206782</v>
       </c>
-      <c r="F5" s="48">
+      <c r="F5" s="47">
         <v>66.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="41" t="s">
+      <c r="G5" s="47">
+        <v>67.138142343766418</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="41" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="32"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="21"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
+      <c r="G6" s="21"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="42" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -1080,18 +1078,21 @@
       <c r="C7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="26">
         <v>50.7</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="32">
         <v>59.596563853884483</v>
       </c>
       <c r="F7" s="7">
         <v>61.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="43" t="s">
+      <c r="G7" s="7">
+        <v>59.586135469075984</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="42" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -1100,31 +1101,35 @@
       <c r="C8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="26">
         <v>62.8</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="32">
         <v>67.50666345288073</v>
       </c>
       <c r="F8" s="7">
         <v>70.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="41" t="s">
+      <c r="G8" s="7">
+        <v>72.469606628046691</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
       <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>34</v>
       </c>
@@ -1134,17 +1139,20 @@
       <c r="C10" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="26">
         <v>67.400000000000006</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="32">
         <v>72.727756496176085</v>
       </c>
       <c r="F10" s="7">
         <v>76.099999999999994</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="7">
+        <v>76.571506167042003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>36</v>
       </c>
@@ -1154,31 +1162,35 @@
       <c r="C11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="26">
         <v>44.7</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="32">
         <v>52.478850918538797</v>
       </c>
       <c r="F11" s="7">
         <v>54</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
+      <c r="G11" s="7">
+        <v>53.9463202801101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="33"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="32"/>
       <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>39</v>
       </c>
@@ -1188,17 +1200,20 @@
       <c r="C13" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="26">
         <v>63.7</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="32">
         <v>71.635820332518307</v>
       </c>
       <c r="F13" s="7">
         <v>65.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="7">
+        <v>60.920963587473622</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>42</v>
       </c>
@@ -1208,17 +1223,20 @@
       <c r="C14" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="26">
         <v>46.2</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="32">
         <v>54.214345584762668</v>
       </c>
       <c r="F14" s="7">
         <v>48.1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="7">
+        <v>53.116411609929003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>45</v>
       </c>
@@ -1228,17 +1246,20 @@
       <c r="C15" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="26">
         <v>69.3</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="32">
         <v>72.713230224266951</v>
       </c>
       <c r="F15" s="7">
         <v>70.7</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="7">
+        <v>71.759951833181276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>48</v>
       </c>
@@ -1248,14 +1269,17 @@
       <c r="C16" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="26">
         <v>71.900000000000006</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="32">
         <v>78.330796533938226</v>
       </c>
       <c r="F16" s="7">
         <v>78.3</v>
+      </c>
+      <c r="G16" s="7">
+        <v>73.179999952791462</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1268,14 +1292,17 @@
       <c r="C17" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="26">
         <v>70.400000000000006</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="32">
         <v>73.833053546528632</v>
       </c>
       <c r="F17" s="7">
         <v>88.8</v>
+      </c>
+      <c r="G17" s="7">
+        <v>97.393840109993775</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1288,34 +1315,40 @@
       <c r="C18" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="26">
         <v>73.3</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="32">
         <v>88.247574778084527</v>
       </c>
       <c r="F18" s="7">
         <v>92.9</v>
       </c>
+      <c r="G18" s="7">
+        <v>91.523815543585997</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="43" t="s">
         <v>57</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="26">
         <v>69.3</v>
       </c>
-      <c r="E19" s="33">
+      <c r="E19" s="32">
         <v>65.741181792069213</v>
       </c>
       <c r="F19" s="7">
         <v>71.400000000000006</v>
+      </c>
+      <c r="G19" s="7">
+        <v>62.978227503755399</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1328,14 +1361,17 @@
       <c r="C20" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="26">
         <v>31.2</v>
       </c>
-      <c r="E20" s="33">
+      <c r="E20" s="32">
         <v>45.046975777166985</v>
       </c>
       <c r="F20" s="7">
         <v>47.4</v>
+      </c>
+      <c r="G20" s="7">
+        <v>45.051243350591406</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1348,29 +1384,33 @@
       <c r="C21" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="26">
         <v>86.7</v>
       </c>
-      <c r="E21" s="33">
+      <c r="E21" s="32">
         <v>98.677795780970257</v>
       </c>
       <c r="F21" s="7">
         <v>99.4</v>
       </c>
+      <c r="G21" s="7">
+        <v>100</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="33"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="32"/>
       <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
@@ -1382,14 +1422,17 @@
       <c r="C23" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="27">
+      <c r="D23" s="26">
         <v>56.6</v>
       </c>
-      <c r="E23" s="33">
+      <c r="E23" s="32">
         <v>61.760682266587438</v>
       </c>
       <c r="F23" s="7">
         <v>64.099999999999994</v>
+      </c>
+      <c r="G23" s="7">
+        <v>66.405327812117577</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1402,14 +1445,17 @@
       <c r="C24" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="27">
+      <c r="D24" s="26">
         <v>59.4</v>
       </c>
-      <c r="E24" s="33">
+      <c r="E24" s="32">
         <v>66.203849412271907</v>
       </c>
       <c r="F24" s="7">
         <v>68.7</v>
+      </c>
+      <c r="G24" s="7">
+        <v>68.279052520339334</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1422,29 +1468,33 @@
       <c r="C25" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="27">
+      <c r="D25" s="26">
         <v>54.1</v>
       </c>
-      <c r="E25" s="33">
+      <c r="E25" s="32">
         <v>61.942673476718404</v>
       </c>
       <c r="F25" s="7">
         <v>64.5</v>
       </c>
+      <c r="G25" s="7">
+        <v>64.34771750957303</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="33"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="32"/>
       <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
@@ -1456,14 +1506,17 @@
       <c r="C27" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="27">
+      <c r="D27" s="26">
         <v>58.8</v>
       </c>
-      <c r="E27" s="33">
+      <c r="E27" s="32">
         <v>63.721131546021255</v>
       </c>
       <c r="F27" s="7">
         <v>69.8</v>
+      </c>
+      <c r="G27" s="7">
+        <v>68.757202871437329</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1476,38 +1529,44 @@
       <c r="C28" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="27">
+      <c r="D28" s="26">
         <v>63.3</v>
       </c>
-      <c r="E28" s="33">
+      <c r="E28" s="32">
         <v>65.183411146838637</v>
       </c>
       <c r="F28" s="7">
         <v>67.5</v>
       </c>
+      <c r="G28" s="7">
+        <v>69.036540765431667</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="43" t="s">
         <v>76</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="27">
+      <c r="D29" s="26">
         <v>57.7</v>
       </c>
-      <c r="E29" s="33">
+      <c r="E29" s="32">
         <v>62.824591035552245</v>
       </c>
       <c r="F29" s="7">
         <v>64.099999999999994</v>
       </c>
+      <c r="G29" s="7">
+        <v>66.568560419475645</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="42" t="s">
         <v>78</v>
       </c>
       <c r="B30" s="11" t="s">
@@ -1516,18 +1575,21 @@
       <c r="C30" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="27">
+      <c r="D30" s="26">
         <v>59.7</v>
       </c>
-      <c r="E30" s="33">
+      <c r="E30" s="32">
         <v>68.133869973798539</v>
       </c>
       <c r="F30" s="7">
         <v>70.8</v>
       </c>
+      <c r="G30" s="7">
+        <v>68.036801021237153</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="44" t="s">
         <v>81</v>
       </c>
       <c r="B31" s="11" t="s">
@@ -1536,117 +1598,128 @@
       <c r="C31" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="31">
+      <c r="D31" s="30">
         <v>53.7</v>
       </c>
-      <c r="E31" s="32">
+      <c r="E31" s="31">
         <v>64.482244330622379</v>
       </c>
       <c r="F31" s="21">
         <v>69.3</v>
       </c>
+      <c r="G31" s="21">
+        <v>66.45361018549076</v>
+      </c>
     </row>
     <row r="32" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="33" t="s">
         <v>16</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>84</v>
       </c>
       <c r="D32" s="23"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="49"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="48"/>
       <c r="G32" s="24"/>
     </row>
     <row r="33" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="26" t="s">
         <v>17</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="32">
+      <c r="D33" s="31">
         <v>52.386926558030133</v>
       </c>
-      <c r="E33" s="32">
+      <c r="E33" s="31">
         <v>55.414275459795434</v>
       </c>
-      <c r="F33" s="50">
+      <c r="F33" s="49">
         <v>58.158919546647368</v>
       </c>
-      <c r="G33" s="24"/>
+      <c r="G33" s="7">
+        <v>56.365185848689464</v>
+      </c>
     </row>
     <row r="34" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D34" s="32">
+      <c r="D34" s="31">
         <v>58.140586059729159</v>
       </c>
-      <c r="E34" s="32">
+      <c r="E34" s="31">
         <v>63.171548733863425</v>
       </c>
-      <c r="F34" s="50">
+      <c r="F34" s="49">
         <v>69.681218418800043</v>
       </c>
-      <c r="G34" s="24"/>
+      <c r="G34" s="7">
+        <v>67.443549502685514</v>
+      </c>
     </row>
     <row r="35" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="26" t="s">
         <v>19</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D35" s="32">
+      <c r="D35" s="31">
         <v>57.9112488156225</v>
       </c>
-      <c r="E35" s="32">
+      <c r="E35" s="31">
         <v>65.79577664926326</v>
       </c>
-      <c r="F35" s="50">
+      <c r="F35" s="49">
         <v>71.468901335932458</v>
       </c>
-      <c r="G35" s="24"/>
+      <c r="G35" s="7">
+        <v>70.313405513368707</v>
+      </c>
     </row>
     <row r="36" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="43" t="s">
+      <c r="A36" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="26" t="s">
         <v>20</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="32">
+      <c r="D36" s="31">
         <v>60.870536057080656</v>
       </c>
-      <c r="E36" s="32">
+      <c r="E36" s="31">
         <v>69.928679261605225</v>
       </c>
-      <c r="F36" s="50">
+      <c r="F36" s="49">
         <v>68.292103783006723</v>
       </c>
-      <c r="G36" s="24"/>
+      <c r="G36" s="7">
+        <v>71.713307111991895</v>
+      </c>
     </row>
     <row r="37" spans="1:7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="46" t="s">
+      <c r="A37" s="45" t="s">
         <v>93</v>
       </c>
       <c r="B37" s="13" t="s">
@@ -1655,16 +1728,18 @@
       <c r="C37" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="35">
+      <c r="D37" s="34">
         <v>59.23220530630207</v>
       </c>
-      <c r="E37" s="35">
+      <c r="E37" s="34">
         <v>65.727945688230506</v>
       </c>
-      <c r="F37" s="51">
+      <c r="F37" s="50">
         <v>67.804192262707872</v>
       </c>
-      <c r="G37" s="24"/>
+      <c r="G37" s="51">
+        <v>71.887400167278756</v>
+      </c>
     </row>
     <row r="38" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
@@ -1676,8 +1751,8 @@
       <c r="C38" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="18"/>

--- a/untranslated/downloads/data-excel/16.1.4.xlsx
+++ b/untranslated/downloads/data-excel/16.1.4.xlsx
@@ -962,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -974,7 +974,7 @@
     <col min="4" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -987,7 +987,7 @@
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1000,14 +1000,14 @@
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
     </row>
-    <row r="3" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1029,8 +1029,11 @@
       <c r="G4" s="46">
         <v>2021</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H4" s="46">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
         <v>98</v>
       </c>
@@ -1052,8 +1055,11 @@
       <c r="G5" s="47">
         <v>67.138142343766418</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" s="47">
+        <v>68.403652209354917</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="40" t="s">
         <v>26</v>
       </c>
@@ -1067,8 +1073,9 @@
       <c r="E6" s="31"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="42" t="s">
         <v>28</v>
       </c>
@@ -1090,8 +1097,11 @@
       <c r="G7" s="7">
         <v>59.586135469075984</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" s="7">
+        <v>64.254057118679711</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="42" t="s">
         <v>31</v>
       </c>
@@ -1113,8 +1123,11 @@
       <c r="G8" s="7">
         <v>72.469606628046691</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" s="7">
+        <v>71.198043977486719</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
         <v>102</v>
       </c>
@@ -1128,8 +1141,9 @@
       <c r="E9" s="32"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>34</v>
       </c>
@@ -1151,8 +1165,11 @@
       <c r="G10" s="7">
         <v>76.571506167042003</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" s="7">
+        <v>77.942907011527112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>36</v>
       </c>
@@ -1174,8 +1191,11 @@
       <c r="G11" s="7">
         <v>53.9463202801101</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" s="7">
+        <v>54.151615283082641</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>103</v>
       </c>
@@ -1189,8 +1209,9 @@
       <c r="E12" s="32"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>39</v>
       </c>
@@ -1212,8 +1233,11 @@
       <c r="G13" s="7">
         <v>60.920963587473622</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" s="7">
+        <v>64.91889737397041</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>42</v>
       </c>
@@ -1235,8 +1259,11 @@
       <c r="G14" s="7">
         <v>53.116411609929003</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" s="7">
+        <v>55.778829631457356</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>45</v>
       </c>
@@ -1258,8 +1285,11 @@
       <c r="G15" s="7">
         <v>71.759951833181276</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" s="7">
+        <v>72.620645083173656</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>48</v>
       </c>
@@ -1281,8 +1311,11 @@
       <c r="G16" s="7">
         <v>73.179999952791462</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" s="7">
+        <v>66.437204146269423</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>51</v>
       </c>
@@ -1304,8 +1337,11 @@
       <c r="G17" s="7">
         <v>97.393840109993775</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" s="7">
+        <v>98.593066278431735</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>54</v>
       </c>
@@ -1327,8 +1363,11 @@
       <c r="G18" s="7">
         <v>91.523815543585997</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" s="7">
+        <v>94.529818764183034</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="43" t="s">
         <v>57</v>
       </c>
@@ -1350,8 +1389,11 @@
       <c r="G19" s="7">
         <v>62.978227503755399</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" s="7">
+        <v>45.79812614122222</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>60</v>
       </c>
@@ -1373,8 +1415,11 @@
       <c r="G20" s="7">
         <v>45.051243350591406</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" s="7">
+        <v>55.958301481437381</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>63</v>
       </c>
@@ -1396,8 +1441,11 @@
       <c r="G21" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" s="7">
+        <v>99.010301863150104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="35" t="s">
         <v>104</v>
       </c>
@@ -1411,8 +1459,9 @@
       <c r="E22" s="32"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>66</v>
       </c>
@@ -1434,8 +1483,11 @@
       <c r="G23" s="7">
         <v>66.405327812117577</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" s="7">
+        <v>67.893487550943732</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>100</v>
       </c>
@@ -1457,8 +1509,11 @@
       <c r="G24" s="7">
         <v>68.279052520339334</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24" s="7">
+        <v>69.375508231290766</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>69</v>
       </c>
@@ -1480,8 +1535,11 @@
       <c r="G25" s="7">
         <v>64.34771750957303</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25" s="7">
+        <v>65.680272006988687</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="35" t="s">
         <v>105</v>
       </c>
@@ -1495,8 +1553,9 @@
       <c r="E26" s="32"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>72</v>
       </c>
@@ -1518,8 +1577,11 @@
       <c r="G27" s="7">
         <v>68.757202871437329</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27" s="7">
+        <v>72.737994884536661</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>74</v>
       </c>
@@ -1541,8 +1603,11 @@
       <c r="G28" s="7">
         <v>69.036540765431667</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28" s="7">
+        <v>69.218309617045563</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="43" t="s">
         <v>76</v>
       </c>
@@ -1564,8 +1629,11 @@
       <c r="G29" s="7">
         <v>66.568560419475645</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29" s="7">
+        <v>68.755034066500045</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="42" t="s">
         <v>78</v>
       </c>
@@ -1587,8 +1655,11 @@
       <c r="G30" s="7">
         <v>68.036801021237153</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30" s="7">
+        <v>67.911205091136935</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="44" t="s">
         <v>81</v>
       </c>
@@ -1610,8 +1681,11 @@
       <c r="G31" s="21">
         <v>66.45361018549076</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="H31" s="7">
+        <v>66.756482957331116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="40" t="s">
         <v>83</v>
       </c>
@@ -1625,8 +1699,9 @@
       <c r="E32" s="24"/>
       <c r="F32" s="48"/>
       <c r="G32" s="24"/>
-    </row>
-    <row r="33" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="H32" s="24"/>
+    </row>
+    <row r="33" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="42" t="s">
         <v>85</v>
       </c>
@@ -1648,8 +1723,11 @@
       <c r="G33" s="7">
         <v>56.365185848689464</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="H33" s="7">
+        <v>66.577620995831069</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="42" t="s">
         <v>87</v>
       </c>
@@ -1671,8 +1749,11 @@
       <c r="G34" s="7">
         <v>67.443549502685514</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="H34" s="7">
+        <v>68.286079211315212</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="42" t="s">
         <v>89</v>
       </c>
@@ -1694,8 +1775,11 @@
       <c r="G35" s="7">
         <v>70.313405513368707</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="H35" s="7">
+        <v>69.211571637448898</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="42" t="s">
         <v>91</v>
       </c>
@@ -1717,8 +1801,11 @@
       <c r="G36" s="7">
         <v>71.713307111991895</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H36" s="7">
+        <v>65.0882809808692</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="45" t="s">
         <v>93</v>
       </c>
@@ -1740,8 +1827,11 @@
       <c r="G37" s="51">
         <v>71.887400167278756</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H37" s="51">
+        <v>74.316189310755291</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
         <v>95</v>
       </c>
@@ -1754,57 +1844,57 @@
       <c r="D38" s="26"/>
       <c r="E38" s="26"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="18"/>
       <c r="B39" s="6"/>
       <c r="C39" s="10"/>
       <c r="D39" s="7"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="18"/>
       <c r="B40" s="6"/>
       <c r="C40" s="10"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="18"/>
       <c r="B42" s="6"/>
       <c r="C42" s="10"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="18"/>
       <c r="B43" s="6"/>
       <c r="C43" s="10"/>
       <c r="D43" s="7"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="12"/>
       <c r="B44" s="5"/>
       <c r="C44" s="12"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="16"/>
       <c r="B45" s="6"/>
       <c r="C45" s="10"/>
       <c r="D45" s="7"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="16"/>
       <c r="B46" s="6"/>
       <c r="C46" s="10"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="16"/>
       <c r="B47" s="6"/>
       <c r="C47" s="10"/>
       <c r="D47" s="7"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="20"/>
       <c r="B48" s="6"/>
       <c r="C48" s="10"/>

--- a/untranslated/downloads/data-excel/16.1.4.xlsx
+++ b/untranslated/downloads/data-excel/16.1.4.xlsx
@@ -962,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -974,7 +974,7 @@
     <col min="4" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -987,7 +987,7 @@
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1000,14 +1000,14 @@
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
     </row>
-    <row r="3" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
     </row>
-    <row r="4" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1029,11 +1029,8 @@
       <c r="G4" s="46">
         <v>2021</v>
       </c>
-      <c r="H4" s="46">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
         <v>98</v>
       </c>
@@ -1055,11 +1052,8 @@
       <c r="G5" s="47">
         <v>67.138142343766418</v>
       </c>
-      <c r="H5" s="47">
-        <v>68.403652209354917</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="40" t="s">
         <v>26</v>
       </c>
@@ -1073,9 +1067,8 @@
       <c r="E6" s="31"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="42" t="s">
         <v>28</v>
       </c>
@@ -1097,11 +1090,8 @@
       <c r="G7" s="7">
         <v>59.586135469075984</v>
       </c>
-      <c r="H7" s="7">
-        <v>64.254057118679711</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="42" t="s">
         <v>31</v>
       </c>
@@ -1123,11 +1113,8 @@
       <c r="G8" s="7">
         <v>72.469606628046691</v>
       </c>
-      <c r="H8" s="7">
-        <v>71.198043977486719</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
         <v>102</v>
       </c>
@@ -1141,9 +1128,8 @@
       <c r="E9" s="32"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>34</v>
       </c>
@@ -1165,11 +1151,8 @@
       <c r="G10" s="7">
         <v>76.571506167042003</v>
       </c>
-      <c r="H10" s="7">
-        <v>77.942907011527112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>36</v>
       </c>
@@ -1191,11 +1174,8 @@
       <c r="G11" s="7">
         <v>53.9463202801101</v>
       </c>
-      <c r="H11" s="7">
-        <v>54.151615283082641</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>103</v>
       </c>
@@ -1209,9 +1189,8 @@
       <c r="E12" s="32"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>39</v>
       </c>
@@ -1233,11 +1212,8 @@
       <c r="G13" s="7">
         <v>60.920963587473622</v>
       </c>
-      <c r="H13" s="7">
-        <v>64.91889737397041</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>42</v>
       </c>
@@ -1259,11 +1235,8 @@
       <c r="G14" s="7">
         <v>53.116411609929003</v>
       </c>
-      <c r="H14" s="7">
-        <v>55.778829631457356</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>45</v>
       </c>
@@ -1285,11 +1258,8 @@
       <c r="G15" s="7">
         <v>71.759951833181276</v>
       </c>
-      <c r="H15" s="7">
-        <v>72.620645083173656</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>48</v>
       </c>
@@ -1311,11 +1281,8 @@
       <c r="G16" s="7">
         <v>73.179999952791462</v>
       </c>
-      <c r="H16" s="7">
-        <v>66.437204146269423</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>51</v>
       </c>
@@ -1337,11 +1304,8 @@
       <c r="G17" s="7">
         <v>97.393840109993775</v>
       </c>
-      <c r="H17" s="7">
-        <v>98.593066278431735</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>54</v>
       </c>
@@ -1363,11 +1327,8 @@
       <c r="G18" s="7">
         <v>91.523815543585997</v>
       </c>
-      <c r="H18" s="7">
-        <v>94.529818764183034</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="43" t="s">
         <v>57</v>
       </c>
@@ -1389,11 +1350,8 @@
       <c r="G19" s="7">
         <v>62.978227503755399</v>
       </c>
-      <c r="H19" s="7">
-        <v>45.79812614122222</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>60</v>
       </c>
@@ -1415,11 +1373,8 @@
       <c r="G20" s="7">
         <v>45.051243350591406</v>
       </c>
-      <c r="H20" s="7">
-        <v>55.958301481437381</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>63</v>
       </c>
@@ -1441,11 +1396,8 @@
       <c r="G21" s="7">
         <v>100</v>
       </c>
-      <c r="H21" s="7">
-        <v>99.010301863150104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="35" t="s">
         <v>104</v>
       </c>
@@ -1459,9 +1411,8 @@
       <c r="E22" s="32"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>66</v>
       </c>
@@ -1483,11 +1434,8 @@
       <c r="G23" s="7">
         <v>66.405327812117577</v>
       </c>
-      <c r="H23" s="7">
-        <v>67.893487550943732</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>100</v>
       </c>
@@ -1509,11 +1457,8 @@
       <c r="G24" s="7">
         <v>68.279052520339334</v>
       </c>
-      <c r="H24" s="7">
-        <v>69.375508231290766</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>69</v>
       </c>
@@ -1535,11 +1480,8 @@
       <c r="G25" s="7">
         <v>64.34771750957303</v>
       </c>
-      <c r="H25" s="7">
-        <v>65.680272006988687</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="35" t="s">
         <v>105</v>
       </c>
@@ -1553,9 +1495,8 @@
       <c r="E26" s="32"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>72</v>
       </c>
@@ -1577,11 +1518,8 @@
       <c r="G27" s="7">
         <v>68.757202871437329</v>
       </c>
-      <c r="H27" s="7">
-        <v>72.737994884536661</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>74</v>
       </c>
@@ -1603,11 +1541,8 @@
       <c r="G28" s="7">
         <v>69.036540765431667</v>
       </c>
-      <c r="H28" s="7">
-        <v>69.218309617045563</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="43" t="s">
         <v>76</v>
       </c>
@@ -1629,11 +1564,8 @@
       <c r="G29" s="7">
         <v>66.568560419475645</v>
       </c>
-      <c r="H29" s="7">
-        <v>68.755034066500045</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="42" t="s">
         <v>78</v>
       </c>
@@ -1655,11 +1587,8 @@
       <c r="G30" s="7">
         <v>68.036801021237153</v>
       </c>
-      <c r="H30" s="7">
-        <v>67.911205091136935</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="44" t="s">
         <v>81</v>
       </c>
@@ -1681,11 +1610,8 @@
       <c r="G31" s="21">
         <v>66.45361018549076</v>
       </c>
-      <c r="H31" s="7">
-        <v>66.756482957331116</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="40" t="s">
         <v>83</v>
       </c>
@@ -1699,9 +1625,8 @@
       <c r="E32" s="24"/>
       <c r="F32" s="48"/>
       <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-    </row>
-    <row r="33" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="42" t="s">
         <v>85</v>
       </c>
@@ -1723,11 +1648,8 @@
       <c r="G33" s="7">
         <v>56.365185848689464</v>
       </c>
-      <c r="H33" s="7">
-        <v>66.577620995831069</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="42" t="s">
         <v>87</v>
       </c>
@@ -1749,11 +1671,8 @@
       <c r="G34" s="7">
         <v>67.443549502685514</v>
       </c>
-      <c r="H34" s="7">
-        <v>68.286079211315212</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="42" t="s">
         <v>89</v>
       </c>
@@ -1775,11 +1694,8 @@
       <c r="G35" s="7">
         <v>70.313405513368707</v>
       </c>
-      <c r="H35" s="7">
-        <v>69.211571637448898</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="42" t="s">
         <v>91</v>
       </c>
@@ -1801,11 +1717,8 @@
       <c r="G36" s="7">
         <v>71.713307111991895</v>
       </c>
-      <c r="H36" s="7">
-        <v>65.0882809808692</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="45" t="s">
         <v>93</v>
       </c>
@@ -1827,11 +1740,8 @@
       <c r="G37" s="51">
         <v>71.887400167278756</v>
       </c>
-      <c r="H37" s="51">
-        <v>74.316189310755291</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
         <v>95</v>
       </c>
@@ -1844,57 +1754,57 @@
       <c r="D38" s="26"/>
       <c r="E38" s="26"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="18"/>
       <c r="B39" s="6"/>
       <c r="C39" s="10"/>
       <c r="D39" s="7"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="18"/>
       <c r="B40" s="6"/>
       <c r="C40" s="10"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="18"/>
       <c r="B42" s="6"/>
       <c r="C42" s="10"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="18"/>
       <c r="B43" s="6"/>
       <c r="C43" s="10"/>
       <c r="D43" s="7"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="12"/>
       <c r="B44" s="5"/>
       <c r="C44" s="12"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="16"/>
       <c r="B45" s="6"/>
       <c r="C45" s="10"/>
       <c r="D45" s="7"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="16"/>
       <c r="B46" s="6"/>
       <c r="C46" s="10"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="16"/>
       <c r="B47" s="6"/>
       <c r="C47" s="10"/>
       <c r="D47" s="7"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="20"/>
       <c r="B48" s="6"/>
       <c r="C48" s="10"/>

--- a/untranslated/downloads/data-excel/16.1.4.xlsx
+++ b/untranslated/downloads/data-excel/16.1.4.xlsx
@@ -44,36 +44,21 @@
     <t>Items</t>
   </si>
   <si>
-    <t>Местность</t>
-  </si>
-  <si>
     <t>Основное общее</t>
   </si>
   <si>
     <t>Среднее общее</t>
   </si>
   <si>
-    <t>Мужской</t>
-  </si>
-  <si>
-    <t>Женский</t>
-  </si>
-  <si>
     <t>Молодёжь, 15-28 лет</t>
   </si>
   <si>
-    <t>Взрослое население трудоспособного возраста</t>
-  </si>
-  <si>
     <t>Начальное и ниже</t>
   </si>
   <si>
     <t>Профессиональное высшее</t>
   </si>
   <si>
-    <t>Кыргызская Республика</t>
-  </si>
-  <si>
     <t>Квинтиль по доходам</t>
   </si>
   <si>
@@ -92,9 +77,6 @@
     <t>Богатейший</t>
   </si>
   <si>
-    <t>Старше трудоспособного возраста</t>
-  </si>
-  <si>
     <t>16.1.4 Доля лиц, которые считают, что в их районе находиться на улице в одиночестве безопасно</t>
   </si>
   <si>
@@ -113,36 +95,21 @@
     <t>шаар</t>
   </si>
   <si>
-    <t>Городская</t>
-  </si>
-  <si>
     <t>urban</t>
   </si>
   <si>
     <t>айыл</t>
   </si>
   <si>
-    <t>Сельская</t>
-  </si>
-  <si>
     <t>rural</t>
   </si>
   <si>
     <t>Эркектер</t>
   </si>
   <si>
-    <t> Men</t>
-  </si>
-  <si>
     <t>Аялдар</t>
   </si>
   <si>
-    <t> Women</t>
-  </si>
-  <si>
-    <t>Territory</t>
-  </si>
-  <si>
     <t>Баткен облусу</t>
   </si>
   <si>
@@ -230,87 +197,21 @@
     <t>Youth, 15-28 years old</t>
   </si>
   <si>
-    <t>Working-age adult population</t>
-  </si>
-  <si>
-    <t>Эмгек жашынан жогору</t>
-  </si>
-  <si>
-    <t>Over working age</t>
-  </si>
-  <si>
     <t>Education</t>
   </si>
   <si>
-    <t>Башталгыч жана андан төмөн</t>
-  </si>
-  <si>
-    <t>Initial and lower</t>
-  </si>
-  <si>
     <t>Негизги жалпы</t>
   </si>
   <si>
-    <t>Basic general</t>
-  </si>
-  <si>
     <t>Орточо жалпы</t>
   </si>
   <si>
-    <t>Average total</t>
-  </si>
-  <si>
-    <t>Кесиптик орто/жалпы</t>
-  </si>
-  <si>
     <t>Профессиональное среднее/общее</t>
   </si>
   <si>
-    <t>Vocational / General</t>
-  </si>
-  <si>
-    <t>Кесиптик жогорку</t>
-  </si>
-  <si>
-    <t>Higher Professional</t>
-  </si>
-  <si>
-    <t>Кирешеси боюнча квинтили</t>
-  </si>
-  <si>
-    <t>Wealth quintile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Жакыр </t>
-  </si>
-  <si>
-    <t>Poorest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Экинчи </t>
-  </si>
-  <si>
-    <t>Second</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Орто </t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Төртүнчү </t>
-  </si>
-  <si>
-    <t>Fourth</t>
-  </si>
-  <si>
     <t>Бай</t>
   </si>
   <si>
-    <t>The richest</t>
-  </si>
-  <si>
     <t>*Үй чарбалардын бюджеттерин жана жумушчу күчтөрдү интеграцияланган тандама текшерүүсү</t>
   </si>
   <si>
@@ -320,43 +221,142 @@
     <t>* Integrated sample survey of household budgets and labor.</t>
   </si>
   <si>
-    <t>Кыргыз Республикасы</t>
-  </si>
-  <si>
-    <t>Kyrgyz Republic</t>
-  </si>
-  <si>
-    <t>Эмгекке жарактуу жаштан жогорку калктын саны</t>
-  </si>
-  <si>
     <t>По полу</t>
   </si>
   <si>
-    <t>Жынысы боюнча</t>
-  </si>
-  <si>
     <t>Аймактар боюнча</t>
   </si>
   <si>
-    <t>Жаш курагы боюнча</t>
-  </si>
-  <si>
-    <t>Билими боюнча</t>
-  </si>
-  <si>
     <t>По территории</t>
   </si>
   <si>
     <t>По возрасту</t>
   </si>
   <si>
-    <t>По образованию</t>
-  </si>
-  <si>
-    <t>By sex</t>
-  </si>
-  <si>
-    <t>By age</t>
+    <t>Бардык</t>
+  </si>
+  <si>
+    <t>Всего</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>По месту проживания</t>
+  </si>
+  <si>
+    <t>Городские поселения</t>
+  </si>
+  <si>
+    <t>Сельская местность</t>
+  </si>
+  <si>
+    <t>жынысы боюнча</t>
+  </si>
+  <si>
+    <t>by sex</t>
+  </si>
+  <si>
+    <t>Мужчины</t>
+  </si>
+  <si>
+    <t>Man</t>
+  </si>
+  <si>
+    <t>Женщины</t>
+  </si>
+  <si>
+    <t>Woman</t>
+  </si>
+  <si>
+    <t>by territory</t>
+  </si>
+  <si>
+    <t>Жаш курагы</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Эмгекке жарамдуу курактагы чоң адамдар (29 жаштан улуу)</t>
+  </si>
+  <si>
+    <t>Взрослое население трудоспособного возраста (от 29 лет)</t>
+  </si>
+  <si>
+    <t>Adult working-age population (from 29 years old)</t>
+  </si>
+  <si>
+    <t>Андан улуу эмгекке жарамдуу курактагы</t>
+  </si>
+  <si>
+    <t>Старше трудоспособного</t>
+  </si>
+  <si>
+    <t>Older than able-bodied</t>
+  </si>
+  <si>
+    <t>Билими</t>
+  </si>
+  <si>
+    <t>По уровню образования</t>
+  </si>
+  <si>
+    <t>Мектепке чейинки же жок / Башталгыч</t>
+  </si>
+  <si>
+    <t>preschool or not /primary</t>
+  </si>
+  <si>
+    <t>basic general</t>
+  </si>
+  <si>
+    <t>average total</t>
+  </si>
+  <si>
+    <t>Кесиптик башталгыч / орто</t>
+  </si>
+  <si>
+    <t>vocational primary /secondary</t>
+  </si>
+  <si>
+    <t>Жогорку</t>
+  </si>
+  <si>
+    <t>higher</t>
+  </si>
+  <si>
+    <t>Кереше квинтил</t>
+  </si>
+  <si>
+    <t>Quintile</t>
+  </si>
+  <si>
+    <t>Жакыр</t>
+  </si>
+  <si>
+    <t>poorest</t>
+  </si>
+  <si>
+    <t>Экинчи</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>Орто</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>Төртүнчү</t>
+  </si>
+  <si>
+    <t>fourth</t>
+  </si>
+  <si>
+    <t>the richest</t>
   </si>
 </sst>
 </file>
@@ -366,7 +366,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,6 +478,19 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -543,7 +556,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -680,6 +693,19 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -962,11 +988,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -974,20 +998,20 @@
     <col min="4" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1000,14 +1024,14 @@
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
     </row>
-    <row r="3" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
     </row>
-    <row r="4" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1032,16 +1056,19 @@
       <c r="H4" s="46">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I4" s="46">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="D5" s="28">
         <v>57.9</v>
@@ -1058,32 +1085,36 @@
       <c r="H5" s="47">
         <v>68.403652209354917</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="47">
+        <v>69.935153262375351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D6" s="30"/>
       <c r="E6" s="31"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="42" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D7" s="26">
         <v>50.7</v>
@@ -1100,16 +1131,19 @@
       <c r="H7" s="7">
         <v>64.254057118679711</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="7">
+        <v>66.022628049505357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="42" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D8" s="26">
         <v>62.8</v>
@@ -1126,32 +1160,36 @@
       <c r="H8" s="7">
         <v>71.198043977486719</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="7">
+        <v>72.445373516489639</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="32"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="D10" s="26">
         <v>67.400000000000006</v>
@@ -1168,16 +1206,19 @@
       <c r="H10" s="7">
         <v>77.942907011527112</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="7">
+        <v>77.693880449605857</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="D11" s="26">
         <v>44.7</v>
@@ -1194,32 +1235,36 @@
       <c r="H11" s="7">
         <v>54.151615283082641</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="7">
+        <v>58.471470669068943</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="D12" s="26"/>
       <c r="E12" s="32"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D13" s="26">
         <v>63.7</v>
@@ -1236,16 +1281,19 @@
       <c r="H13" s="7">
         <v>64.91889737397041</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" s="7">
+        <v>73.922135395602709</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D14" s="26">
         <v>46.2</v>
@@ -1262,16 +1310,19 @@
       <c r="H14" s="7">
         <v>55.778829631457356</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" s="7">
+        <v>66.937405400906428</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D15" s="26">
         <v>69.3</v>
@@ -1288,16 +1339,19 @@
       <c r="H15" s="7">
         <v>72.620645083173656</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" s="7">
+        <v>73.557500333162565</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D16" s="26">
         <v>71.900000000000006</v>
@@ -1314,16 +1368,19 @@
       <c r="H16" s="7">
         <v>66.437204146269423</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" s="7">
+        <v>81.455700661236804</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D17" s="26">
         <v>70.400000000000006</v>
@@ -1340,16 +1397,19 @@
       <c r="H17" s="7">
         <v>98.593066278431735</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" s="7">
+        <v>85.326100153863408</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D18" s="26">
         <v>73.3</v>
@@ -1366,16 +1426,19 @@
       <c r="H18" s="7">
         <v>94.529818764183034</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" s="7">
+        <v>93.58161545143426</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="43" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D19" s="26">
         <v>69.3</v>
@@ -1392,16 +1455,19 @@
       <c r="H19" s="7">
         <v>45.79812614122222</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" s="7">
+        <v>45.863239000214556</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D20" s="26">
         <v>31.2</v>
@@ -1418,16 +1484,19 @@
       <c r="H20" s="7">
         <v>55.958301481437381</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" s="7">
+        <v>57.948304848793633</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D21" s="26">
         <v>86.7</v>
@@ -1444,32 +1513,36 @@
       <c r="H21" s="7">
         <v>99.010301863150104</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" s="7">
+        <v>99.882024854774457</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="35" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="D22" s="26"/>
       <c r="E22" s="32"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D23" s="26">
         <v>56.6</v>
@@ -1486,16 +1559,19 @@
       <c r="H23" s="7">
         <v>67.893487550943732</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23" s="7">
+        <v>70.691370116293825</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="D24" s="26">
         <v>59.4</v>
@@ -1512,16 +1588,19 @@
       <c r="H24" s="7">
         <v>69.375508231290766</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24" s="7">
+        <v>71.098645225987312</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D25" s="26">
         <v>54.1</v>
@@ -1538,32 +1617,36 @@
       <c r="H25" s="7">
         <v>65.680272006988687</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25" s="7">
+        <v>64.89475521079099</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="35" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D26" s="26"/>
       <c r="E26" s="32"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="D27" s="26">
         <v>58.8</v>
@@ -1580,16 +1663,19 @@
       <c r="H27" s="7">
         <v>72.737994884536661</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27" s="7">
+        <v>65.622675838865561</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D28" s="26">
         <v>63.3</v>
@@ -1606,16 +1692,19 @@
       <c r="H28" s="7">
         <v>69.218309617045563</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28" s="7">
+        <v>73.433152357092524</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="43" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="D29" s="26">
         <v>57.7</v>
@@ -1632,16 +1721,19 @@
       <c r="H29" s="7">
         <v>68.755034066500045</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29" s="7">
+        <v>70.983653046322218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="42" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="D30" s="26">
         <v>59.7</v>
@@ -1658,16 +1750,19 @@
       <c r="H30" s="7">
         <v>67.911205091136935</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30" s="7">
+        <v>67.351453404966563</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="44" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="D31" s="30">
         <v>53.7</v>
@@ -1684,32 +1779,36 @@
       <c r="H31" s="7">
         <v>66.756482957331116</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="I31" s="7">
+        <v>68.419794065398122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="40" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D32" s="23"/>
       <c r="E32" s="24"/>
       <c r="F32" s="48"/>
       <c r="G32" s="24"/>
       <c r="H32" s="24"/>
-    </row>
-    <row r="33" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="I32" s="24"/>
+    </row>
+    <row r="33" spans="1:9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="42" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="D33" s="31">
         <v>52.386926558030133</v>
@@ -1726,16 +1825,19 @@
       <c r="H33" s="7">
         <v>66.577620995831069</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="I33" s="7">
+        <v>70.130693762003517</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="42" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D34" s="31">
         <v>58.140586059729159</v>
@@ -1752,16 +1854,19 @@
       <c r="H34" s="7">
         <v>68.286079211315212</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="I34" s="7">
+        <v>72.588098755387108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="42" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="D35" s="31">
         <v>57.9112488156225</v>
@@ -1778,16 +1883,19 @@
       <c r="H35" s="7">
         <v>69.211571637448898</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="I35" s="7">
+        <v>66.388091151087039</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="42" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="D36" s="31">
         <v>60.870536057080656</v>
@@ -1804,16 +1912,19 @@
       <c r="H36" s="7">
         <v>65.0882809808692</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I36" s="7">
+        <v>69.181634969678541</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="45" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="D37" s="34">
         <v>59.23220530630207</v>
@@ -1830,71 +1941,74 @@
       <c r="H37" s="51">
         <v>74.316189310755291</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37" s="51">
+        <v>71.420434847949394</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="55" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="18"/>
       <c r="B39" s="6"/>
       <c r="C39" s="10"/>
       <c r="D39" s="7"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="18"/>
       <c r="B40" s="6"/>
       <c r="C40" s="10"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="18"/>
       <c r="B42" s="6"/>
       <c r="C42" s="10"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="18"/>
       <c r="B43" s="6"/>
       <c r="C43" s="10"/>
       <c r="D43" s="7"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="12"/>
       <c r="B44" s="5"/>
       <c r="C44" s="12"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="16"/>
       <c r="B45" s="6"/>
       <c r="C45" s="10"/>
       <c r="D45" s="7"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="16"/>
       <c r="B46" s="6"/>
       <c r="C46" s="10"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="16"/>
       <c r="B47" s="6"/>
       <c r="C47" s="10"/>
       <c r="D47" s="7"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="20"/>
       <c r="B48" s="6"/>
       <c r="C48" s="10"/>
@@ -1914,6 +2028,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>